--- a/Datos/Precio_Bolsa_Nacional_($kwh)_2011.xlsx
+++ b/Datos/Precio_Bolsa_Nacional_($kwh)_2011.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20365"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B80C1581-4EC7-4046-85E4-118CE94A4245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF43445-9364-477D-9373-E611CBE4FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1213,7 +1224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1223,19 +1234,25 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1324,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1359,6 +1376,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1709,24 +1727,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA372"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A351" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G357" sqref="G357"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="57.85546875" customWidth="1"/>
-    <col min="28" max="256" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" customWidth="1"/>
+    <col min="27" max="27" width="57.88671875" customWidth="1"/>
+    <col min="28" max="256" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="46.5" customHeight="1">
-      <c r="AA1" s="6" t="e">
-        <f t="shared" ref="AA1:AA64" si="0">AVERAGE(B1:Y1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15">
+    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1755,12 +1772,9 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15">
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1839,12 +1853,9 @@
       <c r="Z3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="13.5">
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1923,12 +1934,9 @@
       <c r="Z4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="6">
-        <f t="shared" si="0"/>
-        <v>67.022759666666687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="13.5">
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2007,12 +2015,9 @@
       <c r="Z5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="6">
-        <f t="shared" si="0"/>
-        <v>60.112526666666646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="13.5">
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2091,12 +2096,9 @@
       <c r="Z6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="6">
-        <f t="shared" si="0"/>
-        <v>82.812695333333352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="13.5">
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2175,12 +2177,9 @@
       <c r="Z7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA7" s="6">
-        <f t="shared" si="0"/>
-        <v>84.393839666666665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="13.5">
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2259,12 +2258,9 @@
       <c r="Z8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="6">
-        <f t="shared" si="0"/>
-        <v>79.172754000000012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="13.5">
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2343,12 +2339,9 @@
       <c r="Z9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="6">
-        <f t="shared" si="0"/>
-        <v>87.232350666666647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="13.5">
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2427,12 +2420,9 @@
       <c r="Z10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="6">
-        <f t="shared" si="0"/>
-        <v>72.224593999999982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="13.5">
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2511,12 +2501,9 @@
       <c r="Z11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="6">
-        <f t="shared" si="0"/>
-        <v>80.506152666666637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="13.5">
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2595,12 +2582,9 @@
       <c r="Z12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="6">
-        <f t="shared" si="0"/>
-        <v>66.767413333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="13.5">
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2679,12 +2663,9 @@
       <c r="Z13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="6">
-        <f t="shared" si="0"/>
-        <v>66.138101333333353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="13.5">
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -2763,12 +2744,9 @@
       <c r="Z14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="6">
-        <f t="shared" si="0"/>
-        <v>72.23365933333335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="13.5">
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2847,12 +2825,9 @@
       <c r="Z15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="6">
-        <f t="shared" si="0"/>
-        <v>66.85777800000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="13.5">
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2931,12 +2906,9 @@
       <c r="Z16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="6">
-        <f t="shared" si="0"/>
-        <v>61.315236666666699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="13.5">
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3015,12 +2987,9 @@
       <c r="Z17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA17" s="6">
-        <f t="shared" si="0"/>
-        <v>64.627212666666679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="13.5">
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -3099,12 +3068,9 @@
       <c r="Z18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA18" s="6">
-        <f t="shared" si="0"/>
-        <v>59.597189333333297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="13.5">
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3183,12 +3149,9 @@
       <c r="Z19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA19" s="6">
-        <f t="shared" si="0"/>
-        <v>79.070416333333327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="13.5">
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3267,12 +3230,9 @@
       <c r="Z20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="6">
-        <f t="shared" si="0"/>
-        <v>89.774927666666656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="13.5">
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -3351,12 +3311,9 @@
       <c r="Z21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="0"/>
-        <v>100.62021999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="13.5">
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3435,12 +3392,9 @@
       <c r="Z22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="0"/>
-        <v>102.25879199999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="13.5">
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -3519,12 +3473,9 @@
       <c r="Z23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA23" s="6">
-        <f t="shared" si="0"/>
-        <v>99.378261333333356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="13.5">
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -3603,12 +3554,9 @@
       <c r="Z24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA24" s="6">
-        <f t="shared" si="0"/>
-        <v>94.122579333333348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="13.5">
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3687,12 +3635,9 @@
       <c r="Z25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA25" s="6">
-        <f t="shared" si="0"/>
-        <v>94.823808000000042</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="13.5">
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3771,12 +3716,9 @@
       <c r="Z26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA26" s="6">
-        <f t="shared" si="0"/>
-        <v>99.962149999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="13.5">
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -3855,12 +3797,9 @@
       <c r="Z27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA27" s="6">
-        <f t="shared" si="0"/>
-        <v>122.67539366666669</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="13.5">
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -3939,12 +3878,9 @@
       <c r="Z28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA28" s="6">
-        <f t="shared" si="0"/>
-        <v>125.41182133333336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="13.5">
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -4023,12 +3959,9 @@
       <c r="Z29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA29" s="6">
-        <f t="shared" si="0"/>
-        <v>128.03000933333334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="13.5">
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -4107,12 +4040,9 @@
       <c r="Z30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA30" s="6">
-        <f t="shared" si="0"/>
-        <v>122.19521166666665</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="13.5">
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -4191,12 +4121,9 @@
       <c r="Z31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="6">
-        <f t="shared" si="0"/>
-        <v>122.5592933333334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="13.5">
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4275,12 +4202,9 @@
       <c r="Z32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA32" s="6">
-        <f t="shared" si="0"/>
-        <v>109.35713233333331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="13.5">
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4359,12 +4283,9 @@
       <c r="Z33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA33" s="6">
-        <f t="shared" si="0"/>
-        <v>106.27795499999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="13.5">
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -4443,12 +4364,9 @@
       <c r="Z34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA34" s="6">
-        <f t="shared" si="0"/>
-        <v>106.05383466666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="13.5">
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -4527,12 +4445,9 @@
       <c r="Z35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA35" s="6">
-        <f t="shared" si="0"/>
-        <v>123.80172333333337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="13.5">
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -4611,12 +4526,9 @@
       <c r="Z36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA36" s="6">
-        <f t="shared" si="0"/>
-        <v>120.31113600000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="13.5">
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -4695,12 +4607,9 @@
       <c r="Z37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA37" s="6">
-        <f t="shared" si="0"/>
-        <v>130.14354366666666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="13.5">
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -4779,12 +4688,9 @@
       <c r="Z38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA38" s="6">
-        <f t="shared" si="0"/>
-        <v>128.657455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="13.5">
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -4863,12 +4769,9 @@
       <c r="Z39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA39" s="6">
-        <f t="shared" si="0"/>
-        <v>114.7832213333334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="13.5">
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
@@ -4947,12 +4850,9 @@
       <c r="Z40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA40" s="6">
-        <f t="shared" si="0"/>
-        <v>113.891953</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="13.5">
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -5031,12 +4931,9 @@
       <c r="Z41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA41" s="6">
-        <f t="shared" si="0"/>
-        <v>113.14156300000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="13.5">
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -5115,12 +5012,9 @@
       <c r="Z42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA42" s="6">
-        <f t="shared" si="0"/>
-        <v>111.57866999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="13.5">
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -5199,12 +5093,9 @@
       <c r="Z43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA43" s="6">
-        <f t="shared" si="0"/>
-        <v>109.55122833333333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="13.5">
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>69</v>
       </c>
@@ -5283,12 +5174,9 @@
       <c r="Z44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA44" s="6">
-        <f t="shared" si="0"/>
-        <v>107.85808633333333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="13.5">
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -5367,12 +5255,9 @@
       <c r="Z45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA45" s="6">
-        <f t="shared" si="0"/>
-        <v>106.00945400000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="13.5">
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -5451,12 +5336,9 @@
       <c r="Z46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA46" s="6">
-        <f t="shared" si="0"/>
-        <v>107.62988866666664</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="13.5">
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -5535,12 +5417,9 @@
       <c r="Z47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA47" s="6">
-        <f t="shared" si="0"/>
-        <v>106.09038833333335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="13.5">
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -5619,12 +5498,9 @@
       <c r="Z48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA48" s="6">
-        <f t="shared" si="0"/>
-        <v>105.24087233333334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="13.5">
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -5703,12 +5579,9 @@
       <c r="Z49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA49" s="6">
-        <f t="shared" si="0"/>
-        <v>103.70749966666671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="13.5">
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>75</v>
       </c>
@@ -5787,12 +5660,9 @@
       <c r="Z50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA50" s="6">
-        <f t="shared" si="0"/>
-        <v>93.627300000000048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="13.5">
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -5871,12 +5741,9 @@
       <c r="Z51" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA51" s="6">
-        <f t="shared" si="0"/>
-        <v>91.388957333333352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" ht="13.5">
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>77</v>
       </c>
@@ -5955,12 +5822,9 @@
       <c r="Z52" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA52" s="6">
-        <f t="shared" si="0"/>
-        <v>103.07635933333337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="13.5">
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -6039,12 +5903,9 @@
       <c r="Z53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA53" s="6">
-        <f t="shared" si="0"/>
-        <v>91.561863666666682</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="13.5">
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>79</v>
       </c>
@@ -6123,12 +5984,9 @@
       <c r="Z54" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA54" s="6">
-        <f t="shared" si="0"/>
-        <v>92.691223666666644</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" ht="13.5">
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -6207,12 +6065,9 @@
       <c r="Z55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA55" s="6">
-        <f t="shared" si="0"/>
-        <v>96.918536000000032</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="13.5">
+      <c r="AA55" s="6"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>81</v>
       </c>
@@ -6291,12 +6146,9 @@
       <c r="Z56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA56" s="6">
-        <f t="shared" si="0"/>
-        <v>98.945753000000011</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="13.5">
+      <c r="AA56" s="6"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
@@ -6375,12 +6227,9 @@
       <c r="Z57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA57" s="6">
-        <f t="shared" si="0"/>
-        <v>95.597003333333348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="13.5">
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
@@ -6459,12 +6308,9 @@
       <c r="Z58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA58" s="6">
-        <f t="shared" si="0"/>
-        <v>99.268219666666653</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" ht="13.5">
+      <c r="AA58" s="6"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>84</v>
       </c>
@@ -6543,12 +6389,9 @@
       <c r="Z59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA59" s="6">
-        <f t="shared" si="0"/>
-        <v>103.82227166666671</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="13.5">
+      <c r="AA59" s="6"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
@@ -6627,12 +6470,9 @@
       <c r="Z60" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA60" s="6">
-        <f t="shared" si="0"/>
-        <v>95.187875666666642</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" ht="13.5">
+      <c r="AA60" s="6"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>86</v>
       </c>
@@ -6711,12 +6551,9 @@
       <c r="Z61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA61" s="6">
-        <f t="shared" si="0"/>
-        <v>97.711705666666646</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="13.5">
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
@@ -6795,12 +6632,9 @@
       <c r="Z62" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA62" s="6">
-        <f t="shared" si="0"/>
-        <v>96.96888399999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="13.5">
+      <c r="AA62" s="6"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>88</v>
       </c>
@@ -6879,12 +6713,9 @@
       <c r="Z63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA63" s="6">
-        <f t="shared" si="0"/>
-        <v>89.056537666666699</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="13.5">
+      <c r="AA63" s="6"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>89</v>
       </c>
@@ -6963,12 +6794,9 @@
       <c r="Z64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA64" s="6">
-        <f t="shared" si="0"/>
-        <v>88.256775333333337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="13.5">
+      <c r="AA64" s="6"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>90</v>
       </c>
@@ -7047,12 +6875,9 @@
       <c r="Z65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA65" s="6">
-        <f t="shared" ref="AA65:AA128" si="1">AVERAGE(B65:Y65)</f>
-        <v>92.261098666666712</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="13.5">
+      <c r="AA65" s="6"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>91</v>
       </c>
@@ -7131,12 +6956,9 @@
       <c r="Z66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA66" s="6">
-        <f t="shared" si="1"/>
-        <v>85.059493333333322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="13.5">
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>92</v>
       </c>
@@ -7215,12 +7037,9 @@
       <c r="Z67" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA67" s="6">
-        <f t="shared" si="1"/>
-        <v>80.929791000000009</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="13.5">
+      <c r="AA67" s="6"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -7299,12 +7118,9 @@
       <c r="Z68" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA68" s="6">
-        <f t="shared" si="1"/>
-        <v>81.084549333333371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="13.5">
+      <c r="AA68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
@@ -7383,12 +7199,9 @@
       <c r="Z69" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA69" s="6">
-        <f t="shared" si="1"/>
-        <v>89.389078666666663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="13.5">
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
@@ -7467,12 +7280,9 @@
       <c r="Z70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA70" s="6">
-        <f t="shared" si="1"/>
-        <v>89.122719333333308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="13.5">
+      <c r="AA70" s="6"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -7551,12 +7361,9 @@
       <c r="Z71" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA71" s="6">
-        <f t="shared" si="1"/>
-        <v>85.197698666666653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="13.5">
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>97</v>
       </c>
@@ -7635,12 +7442,9 @@
       <c r="Z72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA72" s="6">
-        <f t="shared" si="1"/>
-        <v>83.223119333333329</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" ht="13.5">
+      <c r="AA72" s="6"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
@@ -7719,12 +7523,9 @@
       <c r="Z73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA73" s="6">
-        <f t="shared" si="1"/>
-        <v>79.507933666666673</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="13.5">
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
@@ -7803,12 +7604,9 @@
       <c r="Z74" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA74" s="6">
-        <f t="shared" si="1"/>
-        <v>77.830847666666642</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="13.5">
+      <c r="AA74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -7887,12 +7685,9 @@
       <c r="Z75" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA75" s="6">
-        <f t="shared" si="1"/>
-        <v>81.891626333333377</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="13.5">
+      <c r="AA75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>101</v>
       </c>
@@ -7971,12 +7766,9 @@
       <c r="Z76" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA76" s="6">
-        <f t="shared" si="1"/>
-        <v>86.956419333333315</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="13.5">
+      <c r="AA76" s="6"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -8055,12 +7847,9 @@
       <c r="Z77" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA77" s="6">
-        <f t="shared" si="1"/>
-        <v>86.812191666666635</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="13.5">
+      <c r="AA77" s="6"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -8139,12 +7928,9 @@
       <c r="Z78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA78" s="6">
-        <f t="shared" si="1"/>
-        <v>87.711982333333324</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="13.5">
+      <c r="AA78" s="6"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -8223,12 +8009,9 @@
       <c r="Z79" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA79" s="6">
-        <f t="shared" si="1"/>
-        <v>85.375625999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="13.5">
+      <c r="AA79" s="6"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -8307,12 +8090,9 @@
       <c r="Z80" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA80" s="6">
-        <f t="shared" si="1"/>
-        <v>78.665545333333355</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="13.5">
+      <c r="AA80" s="6"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -8391,12 +8171,9 @@
       <c r="Z81" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA81" s="6">
-        <f t="shared" si="1"/>
-        <v>76.233719666666673</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="13.5">
+      <c r="AA81" s="6"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -8475,12 +8252,9 @@
       <c r="Z82" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA82" s="6">
-        <f t="shared" si="1"/>
-        <v>77.998201000000009</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="13.5">
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -8559,12 +8333,9 @@
       <c r="Z83" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA83" s="6">
-        <f t="shared" si="1"/>
-        <v>84.207900000000038</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" ht="13.5">
+      <c r="AA83" s="6"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -8643,12 +8414,9 @@
       <c r="Z84" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA84" s="6">
-        <f t="shared" si="1"/>
-        <v>98.558572666666691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="13.5">
+      <c r="AA84" s="6"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
@@ -8727,12 +8495,9 @@
       <c r="Z85" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA85" s="6">
-        <f t="shared" si="1"/>
-        <v>79.589451666666648</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" ht="13.5">
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -8811,12 +8576,9 @@
       <c r="Z86" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA86" s="6">
-        <f t="shared" si="1"/>
-        <v>70.044003333333336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" ht="13.5">
+      <c r="AA86" s="6"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>112</v>
       </c>
@@ -8895,12 +8657,9 @@
       <c r="Z87" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA87" s="6">
-        <f t="shared" si="1"/>
-        <v>66.117424666666679</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" ht="13.5">
+      <c r="AA87" s="6"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -8979,12 +8738,9 @@
       <c r="Z88" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA88" s="6">
-        <f t="shared" si="1"/>
-        <v>57.641420666666647</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" ht="13.5">
+      <c r="AA88" s="6"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>114</v>
       </c>
@@ -9063,12 +8819,9 @@
       <c r="Z89" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA89" s="6">
-        <f t="shared" si="1"/>
-        <v>46.227753333333339</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="13.5">
+      <c r="AA89" s="6"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>115</v>
       </c>
@@ -9147,12 +8900,9 @@
       <c r="Z90" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA90" s="6">
-        <f t="shared" si="1"/>
-        <v>69.299597999999989</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="13.5">
+      <c r="AA90" s="6"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
@@ -9231,12 +8981,9 @@
       <c r="Z91" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA91" s="6">
-        <f t="shared" si="1"/>
-        <v>67.325314666666671</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" ht="13.5">
+      <c r="AA91" s="6"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>117</v>
       </c>
@@ -9315,12 +9062,9 @@
       <c r="Z92" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA92" s="6">
-        <f t="shared" si="1"/>
-        <v>70.214590333333362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" ht="13.5">
+      <c r="AA92" s="6"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>118</v>
       </c>
@@ -9399,12 +9143,9 @@
       <c r="Z93" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA93" s="6">
-        <f t="shared" si="1"/>
-        <v>79.736775333333313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="13.5">
+      <c r="AA93" s="6"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -9483,12 +9224,9 @@
       <c r="Z94" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA94" s="6">
-        <f t="shared" si="1"/>
-        <v>85.130731333333316</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" ht="13.5">
+      <c r="AA94" s="6"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>120</v>
       </c>
@@ -9567,12 +9305,9 @@
       <c r="Z95" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA95" s="6">
-        <f t="shared" si="1"/>
-        <v>84.198306666666639</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" ht="13.5">
+      <c r="AA95" s="6"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>121</v>
       </c>
@@ -9651,12 +9386,9 @@
       <c r="Z96" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA96" s="6">
-        <f t="shared" si="1"/>
-        <v>79.947320333333309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" ht="13.5">
+      <c r="AA96" s="6"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>122</v>
       </c>
@@ -9735,12 +9467,9 @@
       <c r="Z97" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA97" s="6">
-        <f t="shared" si="1"/>
-        <v>90.804010333333324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="13.5">
+      <c r="AA97" s="6"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>123</v>
       </c>
@@ -9819,12 +9548,9 @@
       <c r="Z98" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA98" s="6">
-        <f t="shared" si="1"/>
-        <v>94.099108999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" ht="13.5">
+      <c r="AA98" s="6"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>124</v>
       </c>
@@ -9903,12 +9629,9 @@
       <c r="Z99" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA99" s="6">
-        <f t="shared" si="1"/>
-        <v>111.80278766666667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" ht="13.5">
+      <c r="AA99" s="6"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>125</v>
       </c>
@@ -9987,12 +9710,9 @@
       <c r="Z100" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA100" s="6">
-        <f t="shared" si="1"/>
-        <v>113.931393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" ht="13.5">
+      <c r="AA100" s="6"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>126</v>
       </c>
@@ -10071,12 +9791,9 @@
       <c r="Z101" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA101" s="6">
-        <f t="shared" si="1"/>
-        <v>111.59383166666663</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" ht="13.5">
+      <c r="AA101" s="6"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>127</v>
       </c>
@@ -10155,12 +9872,9 @@
       <c r="Z102" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA102" s="6">
-        <f t="shared" si="1"/>
-        <v>111.54871266666665</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" ht="13.5">
+      <c r="AA102" s="6"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>128</v>
       </c>
@@ -10239,12 +9953,9 @@
       <c r="Z103" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA103" s="6">
-        <f t="shared" si="1"/>
-        <v>104.14661999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" ht="13.5">
+      <c r="AA103" s="6"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>129</v>
       </c>
@@ -10323,12 +10034,9 @@
       <c r="Z104" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA104" s="6">
-        <f t="shared" si="1"/>
-        <v>104.94801899999997</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" ht="13.5">
+      <c r="AA104" s="6"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>130</v>
       </c>
@@ -10407,12 +10115,9 @@
       <c r="Z105" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA105" s="6">
-        <f t="shared" si="1"/>
-        <v>97.462899333333326</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" ht="13.5">
+      <c r="AA105" s="6"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>131</v>
       </c>
@@ -10491,12 +10196,9 @@
       <c r="Z106" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA106" s="6">
-        <f t="shared" si="1"/>
-        <v>82.113556999999986</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" ht="13.5">
+      <c r="AA106" s="6"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>132</v>
       </c>
@@ -10575,12 +10277,9 @@
       <c r="Z107" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA107" s="6">
-        <f t="shared" si="1"/>
-        <v>72.326367666666656</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" ht="13.5">
+      <c r="AA107" s="6"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>133</v>
       </c>
@@ -10659,12 +10358,9 @@
       <c r="Z108" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA108" s="6">
-        <f t="shared" si="1"/>
-        <v>64.58225933333334</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" ht="13.5">
+      <c r="AA108" s="6"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
@@ -10743,12 +10439,9 @@
       <c r="Z109" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA109" s="6">
-        <f t="shared" si="1"/>
-        <v>41.827907000000003</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" ht="13.5">
+      <c r="AA109" s="6"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>135</v>
       </c>
@@ -10827,12 +10520,9 @@
       <c r="Z110" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA110" s="6">
-        <f t="shared" si="1"/>
-        <v>37.493924</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" ht="13.5">
+      <c r="AA110" s="6"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>136</v>
       </c>
@@ -10911,12 +10601,9 @@
       <c r="Z111" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA111" s="6">
-        <f t="shared" si="1"/>
-        <v>55.736553999999984</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" ht="13.5">
+      <c r="AA111" s="6"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>137</v>
       </c>
@@ -10995,12 +10682,9 @@
       <c r="Z112" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA112" s="6">
-        <f t="shared" si="1"/>
-        <v>61.610531000000002</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" ht="13.5">
+      <c r="AA112" s="6"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>138</v>
       </c>
@@ -11079,12 +10763,9 @@
       <c r="Z113" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA113" s="6">
-        <f t="shared" si="1"/>
-        <v>54.209179333333346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" ht="13.5">
+      <c r="AA113" s="6"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>139</v>
       </c>
@@ -11163,12 +10844,9 @@
       <c r="Z114" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA114" s="6">
-        <f t="shared" si="1"/>
-        <v>40.594810999999986</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" ht="13.5">
+      <c r="AA114" s="6"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>140</v>
       </c>
@@ -11247,12 +10925,9 @@
       <c r="Z115" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA115" s="6">
-        <f t="shared" si="1"/>
-        <v>36.116903333333326</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" ht="13.5">
+      <c r="AA115" s="6"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>141</v>
       </c>
@@ -11331,12 +11006,9 @@
       <c r="Z116" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA116" s="6">
-        <f t="shared" si="1"/>
-        <v>35.356674333333338</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" ht="13.5">
+      <c r="AA116" s="6"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>142</v>
       </c>
@@ -11415,12 +11087,9 @@
       <c r="Z117" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA117" s="6">
-        <f t="shared" si="1"/>
-        <v>38.637903999999992</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" ht="13.5">
+      <c r="AA117" s="6"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>143</v>
       </c>
@@ -11499,12 +11168,9 @@
       <c r="Z118" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA118" s="6">
-        <f t="shared" si="1"/>
-        <v>63.100948000000017</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" ht="13.5">
+      <c r="AA118" s="6"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>144</v>
       </c>
@@ -11583,12 +11249,9 @@
       <c r="Z119" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA119" s="6">
-        <f t="shared" si="1"/>
-        <v>64.859302</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" ht="13.5">
+      <c r="AA119" s="6"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>145</v>
       </c>
@@ -11667,12 +11330,9 @@
       <c r="Z120" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA120" s="6">
-        <f t="shared" si="1"/>
-        <v>67.884381666666684</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" ht="13.5">
+      <c r="AA120" s="6"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>146</v>
       </c>
@@ -11751,12 +11411,9 @@
       <c r="Z121" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA121" s="6">
-        <f t="shared" si="1"/>
-        <v>65.501808333333329</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" ht="13.5">
+      <c r="AA121" s="6"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>147</v>
       </c>
@@ -11835,12 +11492,9 @@
       <c r="Z122" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA122" s="6">
-        <f t="shared" si="1"/>
-        <v>65.683838999999978</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" ht="13.5">
+      <c r="AA122" s="6"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>148</v>
       </c>
@@ -11919,12 +11573,9 @@
       <c r="Z123" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA123" s="6">
-        <f t="shared" si="1"/>
-        <v>65.239941666666653</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" ht="13.5">
+      <c r="AA123" s="6"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>149</v>
       </c>
@@ -12003,12 +11654,9 @@
       <c r="Z124" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA124" s="6">
-        <f t="shared" si="1"/>
-        <v>49.339377333333339</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" ht="13.5">
+      <c r="AA124" s="6"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>150</v>
       </c>
@@ -12087,12 +11735,9 @@
       <c r="Z125" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA125" s="6">
-        <f t="shared" si="1"/>
-        <v>59.497734666666666</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" ht="13.5">
+      <c r="AA125" s="6"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>151</v>
       </c>
@@ -12171,12 +11816,9 @@
       <c r="Z126" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA126" s="6">
-        <f t="shared" si="1"/>
-        <v>49.894896999999993</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" ht="13.5">
+      <c r="AA126" s="6"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>152</v>
       </c>
@@ -12255,12 +11897,9 @@
       <c r="Z127" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA127" s="6">
-        <f t="shared" si="1"/>
-        <v>65.164353666666656</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" ht="13.5">
+      <c r="AA127" s="6"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>153</v>
       </c>
@@ -12339,12 +11978,9 @@
       <c r="Z128" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA128" s="6">
-        <f t="shared" si="1"/>
-        <v>64.70290900000002</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" ht="13.5">
+      <c r="AA128" s="6"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>154</v>
       </c>
@@ -12423,12 +12059,9 @@
       <c r="Z129" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA129" s="6">
-        <f t="shared" ref="AA129:AA192" si="2">AVERAGE(B129:Y129)</f>
-        <v>64.349035999999998</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" ht="13.5">
+      <c r="AA129" s="6"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>155</v>
       </c>
@@ -12507,12 +12140,9 @@
       <c r="Z130" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA130" s="6">
-        <f t="shared" si="2"/>
-        <v>59.054295666666654</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" ht="13.5">
+      <c r="AA130" s="6"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>156</v>
       </c>
@@ -12591,12 +12221,9 @@
       <c r="Z131" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA131" s="6">
-        <f t="shared" si="2"/>
-        <v>40.577923666666663</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27" ht="13.5">
+      <c r="AA131" s="6"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>157</v>
       </c>
@@ -12675,12 +12302,9 @@
       <c r="Z132" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA132" s="6">
-        <f t="shared" si="2"/>
-        <v>60.012895000000015</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" ht="13.5">
+      <c r="AA132" s="6"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>158</v>
       </c>
@@ -12759,12 +12383,9 @@
       <c r="Z133" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA133" s="6">
-        <f t="shared" si="2"/>
-        <v>70.808887666666649</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" ht="13.5">
+      <c r="AA133" s="6"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>159</v>
       </c>
@@ -12843,12 +12464,9 @@
       <c r="Z134" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA134" s="6">
-        <f t="shared" si="2"/>
-        <v>73.699667333333323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" ht="13.5">
+      <c r="AA134" s="6"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>160</v>
       </c>
@@ -12927,12 +12545,9 @@
       <c r="Z135" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA135" s="6">
-        <f t="shared" si="2"/>
-        <v>74.493971999999971</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27" ht="13.5">
+      <c r="AA135" s="6"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>161</v>
       </c>
@@ -13011,12 +12626,9 @@
       <c r="Z136" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA136" s="6">
-        <f t="shared" si="2"/>
-        <v>70.572947999999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" ht="13.5">
+      <c r="AA136" s="6"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>162</v>
       </c>
@@ -13095,12 +12707,9 @@
       <c r="Z137" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA137" s="6">
-        <f t="shared" si="2"/>
-        <v>66.93600233333332</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" ht="13.5">
+      <c r="AA137" s="6"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>163</v>
       </c>
@@ -13179,12 +12788,9 @@
       <c r="Z138" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA138" s="6">
-        <f t="shared" si="2"/>
-        <v>45.349531000000013</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" ht="13.5">
+      <c r="AA138" s="6"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>164</v>
       </c>
@@ -13263,12 +12869,9 @@
       <c r="Z139" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA139" s="6">
-        <f t="shared" si="2"/>
-        <v>63.958012999999987</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" ht="13.5">
+      <c r="AA139" s="6"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>165</v>
       </c>
@@ -13347,12 +12950,9 @@
       <c r="Z140" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA140" s="6">
-        <f t="shared" si="2"/>
-        <v>62.724540333333358</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" ht="13.5">
+      <c r="AA140" s="6"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>166</v>
       </c>
@@ -13431,12 +13031,9 @@
       <c r="Z141" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA141" s="6">
-        <f t="shared" si="2"/>
-        <v>58.757806999999993</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" ht="13.5">
+      <c r="AA141" s="6"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>167</v>
       </c>
@@ -13515,12 +13112,9 @@
       <c r="Z142" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA142" s="6">
-        <f t="shared" si="2"/>
-        <v>61.864960999999994</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27" ht="13.5">
+      <c r="AA142" s="6"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>168</v>
       </c>
@@ -13599,12 +13193,9 @@
       <c r="Z143" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA143" s="6">
-        <f t="shared" si="2"/>
-        <v>61.655181333333331</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27" ht="13.5">
+      <c r="AA143" s="6"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>169</v>
       </c>
@@ -13683,12 +13274,9 @@
       <c r="Z144" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA144" s="6">
-        <f t="shared" si="2"/>
-        <v>58.067442999999976</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27" ht="13.5">
+      <c r="AA144" s="6"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>170</v>
       </c>
@@ -13767,12 +13355,9 @@
       <c r="Z145" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA145" s="6">
-        <f t="shared" si="2"/>
-        <v>46.866932999999996</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27" ht="13.5">
+      <c r="AA145" s="6"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>171</v>
       </c>
@@ -13851,12 +13436,9 @@
       <c r="Z146" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA146" s="6">
-        <f t="shared" si="2"/>
-        <v>59.464563666666642</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27" ht="13.5">
+      <c r="AA146" s="6"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>172</v>
       </c>
@@ -13935,12 +13517,9 @@
       <c r="Z147" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA147" s="6">
-        <f t="shared" si="2"/>
-        <v>58.463936999999994</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27" ht="13.5">
+      <c r="AA147" s="6"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>173</v>
       </c>
@@ -14019,12 +13598,9 @@
       <c r="Z148" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA148" s="6">
-        <f t="shared" si="2"/>
-        <v>53.527416333333342</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27" ht="13.5">
+      <c r="AA148" s="6"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>174</v>
       </c>
@@ -14103,12 +13679,9 @@
       <c r="Z149" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA149" s="6">
-        <f t="shared" si="2"/>
-        <v>58.437730999999985</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" ht="13.5">
+      <c r="AA149" s="6"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>175</v>
       </c>
@@ -14187,12 +13760,9 @@
       <c r="Z150" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA150" s="6">
-        <f t="shared" si="2"/>
-        <v>60.143404333333336</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27" ht="13.5">
+      <c r="AA150" s="6"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>176</v>
       </c>
@@ -14271,12 +13841,9 @@
       <c r="Z151" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA151" s="6">
-        <f t="shared" si="2"/>
-        <v>43.237176999999996</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" ht="13.5">
+      <c r="AA151" s="6"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>177</v>
       </c>
@@ -14355,12 +13922,9 @@
       <c r="Z152" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA152" s="6">
-        <f t="shared" si="2"/>
-        <v>38.797847666666677</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27" ht="13.5">
+      <c r="AA152" s="6"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>178</v>
       </c>
@@ -14439,12 +14003,9 @@
       <c r="Z153" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA153" s="6">
-        <f t="shared" si="2"/>
-        <v>64.761015666666665</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" ht="13.5">
+      <c r="AA153" s="6"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>179</v>
       </c>
@@ -14523,12 +14084,9 @@
       <c r="Z154" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA154" s="6">
-        <f t="shared" si="2"/>
-        <v>48.029734666666663</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27" ht="13.5">
+      <c r="AA154" s="6"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>180</v>
       </c>
@@ -14607,12 +14165,9 @@
       <c r="Z155" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA155" s="6">
-        <f t="shared" si="2"/>
-        <v>56.12968</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27" ht="13.5">
+      <c r="AA155" s="6"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>181</v>
       </c>
@@ -14691,12 +14246,9 @@
       <c r="Z156" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA156" s="6">
-        <f t="shared" si="2"/>
-        <v>59.28288433333335</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27" ht="13.5">
+      <c r="AA156" s="6"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>182</v>
       </c>
@@ -14775,12 +14327,9 @@
       <c r="Z157" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA157" s="6">
-        <f t="shared" si="2"/>
-        <v>50.994611666666657</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27" ht="13.5">
+      <c r="AA157" s="6"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>183</v>
       </c>
@@ -14859,12 +14408,9 @@
       <c r="Z158" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA158" s="6">
-        <f t="shared" si="2"/>
-        <v>39.153793999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27" ht="13.5">
+      <c r="AA158" s="6"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>184</v>
       </c>
@@ -14943,12 +14489,9 @@
       <c r="Z159" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA159" s="6">
-        <f t="shared" si="2"/>
-        <v>37.750553000000011</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27" ht="13.5">
+      <c r="AA159" s="6"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>185</v>
       </c>
@@ -15027,12 +14570,9 @@
       <c r="Z160" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA160" s="6">
-        <f t="shared" si="2"/>
-        <v>49.951141666666665</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" ht="13.5">
+      <c r="AA160" s="6"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>186</v>
       </c>
@@ -15111,12 +14651,9 @@
       <c r="Z161" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA161" s="6">
-        <f t="shared" si="2"/>
-        <v>66.193696333333349</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" ht="13.5">
+      <c r="AA161" s="6"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>187</v>
       </c>
@@ -15195,12 +14732,9 @@
       <c r="Z162" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA162" s="6">
-        <f t="shared" si="2"/>
-        <v>71.45533966666666</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" ht="13.5">
+      <c r="AA162" s="6"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>188</v>
       </c>
@@ -15279,12 +14813,9 @@
       <c r="Z163" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA163" s="6">
-        <f t="shared" si="2"/>
-        <v>72.039265666666651</v>
-      </c>
-    </row>
-    <row r="164" spans="1:27" ht="13.5">
+      <c r="AA163" s="6"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>189</v>
       </c>
@@ -15363,12 +14894,9 @@
       <c r="Z164" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA164" s="6">
-        <f t="shared" si="2"/>
-        <v>65.938957999999985</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" ht="13.5">
+      <c r="AA164" s="6"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>190</v>
       </c>
@@ -15447,12 +14975,9 @@
       <c r="Z165" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA165" s="6">
-        <f t="shared" si="2"/>
-        <v>62.709362666666657</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27" ht="13.5">
+      <c r="AA165" s="6"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>191</v>
       </c>
@@ -15531,12 +15056,9 @@
       <c r="Z166" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA166" s="6">
-        <f t="shared" si="2"/>
-        <v>60.44277499999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" ht="13.5">
+      <c r="AA166" s="6"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>192</v>
       </c>
@@ -15615,12 +15137,9 @@
       <c r="Z167" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA167" s="6">
-        <f t="shared" si="2"/>
-        <v>78.640426333333309</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" ht="13.5">
+      <c r="AA167" s="6"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>193</v>
       </c>
@@ -15699,12 +15218,9 @@
       <c r="Z168" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA168" s="6">
-        <f t="shared" si="2"/>
-        <v>74.810085000000029</v>
-      </c>
-    </row>
-    <row r="169" spans="1:27" ht="13.5">
+      <c r="AA168" s="6"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>194</v>
       </c>
@@ -15783,12 +15299,9 @@
       <c r="Z169" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA169" s="6">
-        <f t="shared" si="2"/>
-        <v>71.95716266666669</v>
-      </c>
-    </row>
-    <row r="170" spans="1:27" ht="13.5">
+      <c r="AA169" s="6"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
@@ -15867,12 +15380,9 @@
       <c r="Z170" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA170" s="6">
-        <f t="shared" si="2"/>
-        <v>76.126021999999978</v>
-      </c>
-    </row>
-    <row r="171" spans="1:27" ht="13.5">
+      <c r="AA170" s="6"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>196</v>
       </c>
@@ -15951,12 +15461,9 @@
       <c r="Z171" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA171" s="6">
-        <f t="shared" si="2"/>
-        <v>74.361085000000003</v>
-      </c>
-    </row>
-    <row r="172" spans="1:27" ht="13.5">
+      <c r="AA171" s="6"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>197</v>
       </c>
@@ -16035,12 +15542,9 @@
       <c r="Z172" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA172" s="6">
-        <f t="shared" si="2"/>
-        <v>62.75183599999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" ht="13.5">
+      <c r="AA172" s="6"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>198</v>
       </c>
@@ -16119,12 +15623,9 @@
       <c r="Z173" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA173" s="6">
-        <f t="shared" si="2"/>
-        <v>41.110796000000015</v>
-      </c>
-    </row>
-    <row r="174" spans="1:27" ht="13.5">
+      <c r="AA173" s="6"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>199</v>
       </c>
@@ -16203,12 +15704,9 @@
       <c r="Z174" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA174" s="6">
-        <f t="shared" si="2"/>
-        <v>60.731168999999987</v>
-      </c>
-    </row>
-    <row r="175" spans="1:27" ht="13.5">
+      <c r="AA174" s="6"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>200</v>
       </c>
@@ -16287,12 +15785,9 @@
       <c r="Z175" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA175" s="6">
-        <f t="shared" si="2"/>
-        <v>64.454956999999979</v>
-      </c>
-    </row>
-    <row r="176" spans="1:27" ht="13.5">
+      <c r="AA175" s="6"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>201</v>
       </c>
@@ -16371,12 +15866,9 @@
       <c r="Z176" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA176" s="6">
-        <f t="shared" si="2"/>
-        <v>72.466983000000013</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27" ht="13.5">
+      <c r="AA176" s="6"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>202</v>
       </c>
@@ -16455,12 +15947,9 @@
       <c r="Z177" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA177" s="6">
-        <f t="shared" si="2"/>
-        <v>68.011524333333313</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27" ht="13.5">
+      <c r="AA177" s="6"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>203</v>
       </c>
@@ -16539,12 +16028,9 @@
       <c r="Z178" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA178" s="6">
-        <f t="shared" si="2"/>
-        <v>61.95236133333335</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27" ht="13.5">
+      <c r="AA178" s="6"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>204</v>
       </c>
@@ -16623,12 +16109,9 @@
       <c r="Z179" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA179" s="6">
-        <f t="shared" si="2"/>
-        <v>54.946177333333338</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27" ht="13.5">
+      <c r="AA179" s="6"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>205</v>
       </c>
@@ -16707,12 +16190,9 @@
       <c r="Z180" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA180" s="6">
-        <f t="shared" si="2"/>
-        <v>43.93233900000002</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27" ht="13.5">
+      <c r="AA180" s="6"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>206</v>
       </c>
@@ -16791,12 +16271,9 @@
       <c r="Z181" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA181" s="6">
-        <f t="shared" si="2"/>
-        <v>40.934073999999995</v>
-      </c>
-    </row>
-    <row r="182" spans="1:27" ht="13.5">
+      <c r="AA181" s="6"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>207</v>
       </c>
@@ -16875,12 +16352,9 @@
       <c r="Z182" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA182" s="6">
-        <f t="shared" si="2"/>
-        <v>63.93893933333333</v>
-      </c>
-    </row>
-    <row r="183" spans="1:27" ht="13.5">
+      <c r="AA182" s="6"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>208</v>
       </c>
@@ -16959,12 +16433,9 @@
       <c r="Z183" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA183" s="6">
-        <f t="shared" si="2"/>
-        <v>56.412310999999988</v>
-      </c>
-    </row>
-    <row r="184" spans="1:27" ht="13.5">
+      <c r="AA183" s="6"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>209</v>
       </c>
@@ -17043,12 +16514,9 @@
       <c r="Z184" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA184" s="6">
-        <f t="shared" si="2"/>
-        <v>42.268734000000002</v>
-      </c>
-    </row>
-    <row r="185" spans="1:27" ht="13.5">
+      <c r="AA184" s="6"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>210</v>
       </c>
@@ -17127,12 +16595,9 @@
       <c r="Z185" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA185" s="6">
-        <f t="shared" si="2"/>
-        <v>41.742624666666686</v>
-      </c>
-    </row>
-    <row r="186" spans="1:27" ht="13.5">
+      <c r="AA185" s="6"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>211</v>
       </c>
@@ -17211,12 +16676,9 @@
       <c r="Z186" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA186" s="6">
-        <f t="shared" si="2"/>
-        <v>40.964133666666669</v>
-      </c>
-    </row>
-    <row r="187" spans="1:27" ht="13.5">
+      <c r="AA186" s="6"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>212</v>
       </c>
@@ -17295,12 +16757,9 @@
       <c r="Z187" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA187" s="6">
-        <f t="shared" si="2"/>
-        <v>38.590788333333315</v>
-      </c>
-    </row>
-    <row r="188" spans="1:27" ht="13.5">
+      <c r="AA187" s="6"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>213</v>
       </c>
@@ -17379,12 +16838,9 @@
       <c r="Z188" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA188" s="6">
-        <f t="shared" si="2"/>
-        <v>43.230696000000016</v>
-      </c>
-    </row>
-    <row r="189" spans="1:27" ht="13.5">
+      <c r="AA188" s="6"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>214</v>
       </c>
@@ -17463,12 +16919,9 @@
       <c r="Z189" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA189" s="6">
-        <f t="shared" si="2"/>
-        <v>43.004337333333332</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" ht="13.5">
+      <c r="AA189" s="6"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>215</v>
       </c>
@@ -17547,12 +17000,9 @@
       <c r="Z190" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA190" s="6">
-        <f t="shared" si="2"/>
-        <v>47.132826666666681</v>
-      </c>
-    </row>
-    <row r="191" spans="1:27" ht="13.5">
+      <c r="AA190" s="6"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>216</v>
       </c>
@@ -17631,12 +17081,9 @@
       <c r="Z191" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA191" s="6">
-        <f t="shared" si="2"/>
-        <v>47.42383499999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:27" ht="13.5">
+      <c r="AA191" s="6"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>217</v>
       </c>
@@ -17715,12 +17162,9 @@
       <c r="Z192" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA192" s="6">
-        <f t="shared" si="2"/>
-        <v>51.125144333333338</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27" ht="13.5">
+      <c r="AA192" s="6"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>218</v>
       </c>
@@ -17799,12 +17243,9 @@
       <c r="Z193" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA193" s="6">
-        <f t="shared" ref="AA193:AA256" si="3">AVERAGE(B193:Y193)</f>
-        <v>43.96478533333331</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27" ht="13.5">
+      <c r="AA193" s="6"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>219</v>
       </c>
@@ -17883,12 +17324,9 @@
       <c r="Z194" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA194" s="6">
-        <f t="shared" si="3"/>
-        <v>52.14479166666667</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27" ht="13.5">
+      <c r="AA194" s="6"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>220</v>
       </c>
@@ -17967,12 +17405,9 @@
       <c r="Z195" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA195" s="6">
-        <f t="shared" si="3"/>
-        <v>51.063477999999996</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27" ht="13.5">
+      <c r="AA195" s="6"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>221</v>
       </c>
@@ -18051,12 +17486,9 @@
       <c r="Z196" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA196" s="6">
-        <f t="shared" si="3"/>
-        <v>72.68468533333332</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27" ht="13.5">
+      <c r="AA196" s="6"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>222</v>
       </c>
@@ -18135,12 +17567,9 @@
       <c r="Z197" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA197" s="6">
-        <f t="shared" si="3"/>
-        <v>71.217030000000008</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27" ht="13.5">
+      <c r="AA197" s="6"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>223</v>
       </c>
@@ -18219,12 +17648,9 @@
       <c r="Z198" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA198" s="6">
-        <f t="shared" si="3"/>
-        <v>70.67209533333336</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27" ht="13.5">
+      <c r="AA198" s="6"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>224</v>
       </c>
@@ -18303,12 +17729,9 @@
       <c r="Z199" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA199" s="6">
-        <f t="shared" si="3"/>
-        <v>73.020169999999993</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27" ht="13.5">
+      <c r="AA199" s="6"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>225</v>
       </c>
@@ -18387,12 +17810,9 @@
       <c r="Z200" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA200" s="6">
-        <f t="shared" si="3"/>
-        <v>62.417263333333345</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27" ht="13.5">
+      <c r="AA200" s="6"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>226</v>
       </c>
@@ -18471,12 +17891,9 @@
       <c r="Z201" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA201" s="6">
-        <f t="shared" si="3"/>
-        <v>57.232462666666656</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27" ht="13.5">
+      <c r="AA201" s="6"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>227</v>
       </c>
@@ -18555,12 +17972,9 @@
       <c r="Z202" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA202" s="6">
-        <f t="shared" si="3"/>
-        <v>65.205127666666655</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27" ht="13.5">
+      <c r="AA202" s="6"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>228</v>
       </c>
@@ -18639,12 +18053,9 @@
       <c r="Z203" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA203" s="6">
-        <f t="shared" si="3"/>
-        <v>62.121417000000029</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27" ht="13.5">
+      <c r="AA203" s="6"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>229</v>
       </c>
@@ -18723,12 +18134,9 @@
       <c r="Z204" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA204" s="6">
-        <f t="shared" si="3"/>
-        <v>51.656618333333334</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" ht="13.5">
+      <c r="AA204" s="6"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>230</v>
       </c>
@@ -18807,12 +18215,9 @@
       <c r="Z205" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA205" s="6">
-        <f t="shared" si="3"/>
-        <v>64.586902666666674</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" ht="13.5">
+      <c r="AA205" s="6"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>231</v>
       </c>
@@ -18891,12 +18296,9 @@
       <c r="Z206" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA206" s="6">
-        <f t="shared" si="3"/>
-        <v>66.70435599999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" ht="13.5">
+      <c r="AA206" s="6"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>232</v>
       </c>
@@ -18975,12 +18377,9 @@
       <c r="Z207" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA207" s="6">
-        <f t="shared" si="3"/>
-        <v>70.978466666666634</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" ht="13.5">
+      <c r="AA207" s="6"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>233</v>
       </c>
@@ -19059,12 +18458,9 @@
       <c r="Z208" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA208" s="6">
-        <f t="shared" si="3"/>
-        <v>47.683409333333344</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" ht="13.5">
+      <c r="AA208" s="6"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>234</v>
       </c>
@@ -19143,12 +18539,9 @@
       <c r="Z209" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA209" s="6">
-        <f t="shared" si="3"/>
-        <v>55.987100000000005</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" ht="13.5">
+      <c r="AA209" s="6"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>235</v>
       </c>
@@ -19227,12 +18620,9 @@
       <c r="Z210" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA210" s="6">
-        <f t="shared" si="3"/>
-        <v>58.376109333333339</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" ht="13.5">
+      <c r="AA210" s="6"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>236</v>
       </c>
@@ -19311,12 +18701,9 @@
       <c r="Z211" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA211" s="6">
-        <f t="shared" si="3"/>
-        <v>65.57079866666669</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" ht="13.5">
+      <c r="AA211" s="6"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>237</v>
       </c>
@@ -19395,12 +18782,9 @@
       <c r="Z212" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA212" s="6">
-        <f t="shared" si="3"/>
-        <v>61.440302666666675</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" ht="13.5">
+      <c r="AA212" s="6"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>238</v>
       </c>
@@ -19479,12 +18863,9 @@
       <c r="Z213" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA213" s="6">
-        <f t="shared" si="3"/>
-        <v>56.364877666666672</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" ht="13.5">
+      <c r="AA213" s="6"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>239</v>
       </c>
@@ -19563,12 +18944,9 @@
       <c r="Z214" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA214" s="6">
-        <f t="shared" si="3"/>
-        <v>48.389960333333335</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" ht="13.5">
+      <c r="AA214" s="6"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>240</v>
       </c>
@@ -19647,12 +19025,9 @@
       <c r="Z215" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA215" s="6">
-        <f t="shared" si="3"/>
-        <v>38.233121333333322</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" ht="13.5">
+      <c r="AA215" s="6"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>241</v>
       </c>
@@ -19731,12 +19106,9 @@
       <c r="Z216" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA216" s="6">
-        <f t="shared" si="3"/>
-        <v>64.061308666666676</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" ht="13.5">
+      <c r="AA216" s="6"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>243</v>
       </c>
@@ -19815,12 +19187,9 @@
       <c r="Z217" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA217" s="6">
-        <f t="shared" si="3"/>
-        <v>78.549021000000025</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" ht="13.5">
+      <c r="AA217" s="6"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>244</v>
       </c>
@@ -19899,12 +19268,9 @@
       <c r="Z218" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA218" s="6">
-        <f t="shared" si="3"/>
-        <v>76.418624000000008</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" ht="13.5">
+      <c r="AA218" s="6"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>245</v>
       </c>
@@ -19983,12 +19349,9 @@
       <c r="Z219" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA219" s="6">
-        <f t="shared" si="3"/>
-        <v>72.669391000000019</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" ht="13.5">
+      <c r="AA219" s="6"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>246</v>
       </c>
@@ -20067,12 +19430,9 @@
       <c r="Z220" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA220" s="6">
-        <f t="shared" si="3"/>
-        <v>72.020753666666664</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" ht="13.5">
+      <c r="AA220" s="6"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>247</v>
       </c>
@@ -20151,12 +19511,9 @@
       <c r="Z221" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA221" s="6">
-        <f t="shared" si="3"/>
-        <v>81.855944333333355</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" ht="13.5">
+      <c r="AA221" s="6"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>248</v>
       </c>
@@ -20235,12 +19592,9 @@
       <c r="Z222" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA222" s="6">
-        <f t="shared" si="3"/>
-        <v>88.324873333333343</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27" ht="13.5">
+      <c r="AA222" s="6"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>249</v>
       </c>
@@ -20319,12 +19673,9 @@
       <c r="Z223" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA223" s="6">
-        <f t="shared" si="3"/>
-        <v>116.66474633333327</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27" ht="13.5">
+      <c r="AA223" s="6"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>250</v>
       </c>
@@ -20403,12 +19754,9 @@
       <c r="Z224" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA224" s="6">
-        <f t="shared" si="3"/>
-        <v>110.90253766666666</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27" ht="13.5">
+      <c r="AA224" s="6"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>251</v>
       </c>
@@ -20487,12 +19835,9 @@
       <c r="Z225" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA225" s="6">
-        <f t="shared" si="3"/>
-        <v>108.84300366666666</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" ht="13.5">
+      <c r="AA225" s="6"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>252</v>
       </c>
@@ -20571,12 +19916,9 @@
       <c r="Z226" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA226" s="6">
-        <f t="shared" si="3"/>
-        <v>101.688281</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27" ht="13.5">
+      <c r="AA226" s="6"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>253</v>
       </c>
@@ -20655,12 +19997,9 @@
       <c r="Z227" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA227" s="6">
-        <f t="shared" si="3"/>
-        <v>115.56029833333332</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27" ht="13.5">
+      <c r="AA227" s="6"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>254</v>
       </c>
@@ -20739,12 +20078,9 @@
       <c r="Z228" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA228" s="6">
-        <f t="shared" si="3"/>
-        <v>114.48712766666665</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27" ht="13.5">
+      <c r="AA228" s="6"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>255</v>
       </c>
@@ -20823,12 +20159,9 @@
       <c r="Z229" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA229" s="6">
-        <f t="shared" si="3"/>
-        <v>92.352544000000023</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27" ht="13.5">
+      <c r="AA229" s="6"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>256</v>
       </c>
@@ -20907,12 +20240,9 @@
       <c r="Z230" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA230" s="6">
-        <f t="shared" si="3"/>
-        <v>96.056443333333291</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27" ht="13.5">
+      <c r="AA230" s="6"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>257</v>
       </c>
@@ -20991,12 +20321,9 @@
       <c r="Z231" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA231" s="6">
-        <f t="shared" si="3"/>
-        <v>115.11802400000001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27" ht="13.5">
+      <c r="AA231" s="6"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>258</v>
       </c>
@@ -21075,12 +20402,9 @@
       <c r="Z232" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA232" s="6">
-        <f t="shared" si="3"/>
-        <v>99.477860333333339</v>
-      </c>
-    </row>
-    <row r="233" spans="1:27" ht="13.5">
+      <c r="AA232" s="6"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>259</v>
       </c>
@@ -21159,12 +20483,9 @@
       <c r="Z233" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA233" s="6">
-        <f t="shared" si="3"/>
-        <v>86.893338999999983</v>
-      </c>
-    </row>
-    <row r="234" spans="1:27" ht="13.5">
+      <c r="AA233" s="6"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>260</v>
       </c>
@@ -21243,12 +20564,9 @@
       <c r="Z234" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA234" s="6">
-        <f t="shared" si="3"/>
-        <v>65.793343666666701</v>
-      </c>
-    </row>
-    <row r="235" spans="1:27" ht="13.5">
+      <c r="AA234" s="6"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>261</v>
       </c>
@@ -21327,12 +20645,9 @@
       <c r="Z235" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA235" s="6">
-        <f t="shared" si="3"/>
-        <v>84.283609333333345</v>
-      </c>
-    </row>
-    <row r="236" spans="1:27" ht="13.5">
+      <c r="AA235" s="6"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -21411,12 +20726,9 @@
       <c r="Z236" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA236" s="6">
-        <f t="shared" si="3"/>
-        <v>64.942536000000004</v>
-      </c>
-    </row>
-    <row r="237" spans="1:27" ht="13.5">
+      <c r="AA236" s="6"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -21495,12 +20807,9 @@
       <c r="Z237" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA237" s="6">
-        <f t="shared" si="3"/>
-        <v>79.527845666666664</v>
-      </c>
-    </row>
-    <row r="238" spans="1:27" ht="13.5">
+      <c r="AA237" s="6"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -21579,12 +20888,9 @@
       <c r="Z238" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA238" s="6">
-        <f t="shared" si="3"/>
-        <v>85.862130666666701</v>
-      </c>
-    </row>
-    <row r="239" spans="1:27" ht="13.5">
+      <c r="AA238" s="6"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -21663,12 +20969,9 @@
       <c r="Z239" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA239" s="6">
-        <f t="shared" si="3"/>
-        <v>80.48005400000001</v>
-      </c>
-    </row>
-    <row r="240" spans="1:27" ht="13.5">
+      <c r="AA239" s="6"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>266</v>
       </c>
@@ -21747,12 +21050,9 @@
       <c r="Z240" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA240" s="6">
-        <f t="shared" si="3"/>
-        <v>86.767565999999988</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27" ht="13.5">
+      <c r="AA240" s="6"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>267</v>
       </c>
@@ -21831,12 +21131,9 @@
       <c r="Z241" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA241" s="6">
-        <f t="shared" si="3"/>
-        <v>81.789678333333299</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27" ht="13.5">
+      <c r="AA241" s="6"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
@@ -21915,12 +21212,9 @@
       <c r="Z242" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA242" s="6">
-        <f t="shared" si="3"/>
-        <v>81.071589333333307</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27" ht="13.5">
+      <c r="AA242" s="6"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>269</v>
       </c>
@@ -21999,12 +21293,9 @@
       <c r="Z243" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA243" s="6">
-        <f t="shared" si="3"/>
-        <v>74.34025833333331</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27" ht="13.5">
+      <c r="AA243" s="6"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
@@ -22083,12 +21374,9 @@
       <c r="Z244" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA244" s="6">
-        <f t="shared" si="3"/>
-        <v>91.964117333333306</v>
-      </c>
-    </row>
-    <row r="245" spans="1:27" ht="13.5">
+      <c r="AA244" s="6"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>271</v>
       </c>
@@ -22167,12 +21455,9 @@
       <c r="Z245" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA245" s="6">
-        <f t="shared" si="3"/>
-        <v>98.914549666666687</v>
-      </c>
-    </row>
-    <row r="246" spans="1:27" ht="13.5">
+      <c r="AA245" s="6"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>272</v>
       </c>
@@ -22251,12 +21536,9 @@
       <c r="Z246" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AA246" s="6">
-        <f t="shared" si="3"/>
-        <v>90.655717999999979</v>
-      </c>
-    </row>
-    <row r="247" spans="1:27" ht="13.5">
+      <c r="AA246" s="6"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>273</v>
       </c>
@@ -22335,12 +21617,9 @@
       <c r="Z247" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA247" s="6">
-        <f t="shared" si="3"/>
-        <v>117.84721233333336</v>
-      </c>
-    </row>
-    <row r="248" spans="1:27" ht="13.5">
+      <c r="AA247" s="6"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>274</v>
       </c>
@@ -22419,12 +21698,9 @@
       <c r="Z248" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA248" s="6">
-        <f t="shared" si="3"/>
-        <v>96.564929666666671</v>
-      </c>
-    </row>
-    <row r="249" spans="1:27" ht="13.5">
+      <c r="AA248" s="6"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>275</v>
       </c>
@@ -22503,12 +21779,9 @@
       <c r="Z249" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA249" s="6">
-        <f t="shared" si="3"/>
-        <v>84.118721333333298</v>
-      </c>
-    </row>
-    <row r="250" spans="1:27" ht="13.5">
+      <c r="AA249" s="6"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>276</v>
       </c>
@@ -22587,12 +21860,9 @@
       <c r="Z250" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA250" s="6">
-        <f t="shared" si="3"/>
-        <v>80.317322666666684</v>
-      </c>
-    </row>
-    <row r="251" spans="1:27" ht="13.5">
+      <c r="AA250" s="6"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>277</v>
       </c>
@@ -22671,12 +21941,9 @@
       <c r="Z251" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA251" s="6">
-        <f t="shared" si="3"/>
-        <v>100.08095000000002</v>
-      </c>
-    </row>
-    <row r="252" spans="1:27" ht="13.5">
+      <c r="AA251" s="6"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>278</v>
       </c>
@@ -22755,12 +22022,9 @@
       <c r="Z252" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA252" s="6">
-        <f t="shared" si="3"/>
-        <v>96.884700000000024</v>
-      </c>
-    </row>
-    <row r="253" spans="1:27" ht="13.5">
+      <c r="AA252" s="6"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>279</v>
       </c>
@@ -22839,12 +22103,9 @@
       <c r="Z253" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA253" s="6">
-        <f t="shared" si="3"/>
-        <v>103.57300300000003</v>
-      </c>
-    </row>
-    <row r="254" spans="1:27" ht="13.5">
+      <c r="AA253" s="6"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>280</v>
       </c>
@@ -22923,12 +22184,9 @@
       <c r="Z254" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA254" s="6">
-        <f t="shared" si="3"/>
-        <v>112.97728633333334</v>
-      </c>
-    </row>
-    <row r="255" spans="1:27" ht="13.5">
+      <c r="AA254" s="6"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>281</v>
       </c>
@@ -23007,12 +22265,9 @@
       <c r="Z255" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA255" s="6">
-        <f t="shared" si="3"/>
-        <v>93.512675333333291</v>
-      </c>
-    </row>
-    <row r="256" spans="1:27" ht="13.5">
+      <c r="AA255" s="6"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>282</v>
       </c>
@@ -23091,12 +22346,9 @@
       <c r="Z256" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA256" s="6">
-        <f t="shared" si="3"/>
-        <v>89.460853</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27" ht="13.5">
+      <c r="AA256" s="6"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>283</v>
       </c>
@@ -23175,12 +22427,9 @@
       <c r="Z257" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA257" s="6">
-        <f t="shared" ref="AA257:AA320" si="4">AVERAGE(B257:Y257)</f>
-        <v>87.05549400000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27" ht="13.5">
+      <c r="AA257" s="6"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>284</v>
       </c>
@@ -23259,12 +22508,9 @@
       <c r="Z258" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA258" s="6">
-        <f t="shared" si="4"/>
-        <v>85.091159333333337</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27" ht="13.5">
+      <c r="AA258" s="6"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>285</v>
       </c>
@@ -23343,12 +22589,9 @@
       <c r="Z259" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA259" s="6">
-        <f t="shared" si="4"/>
-        <v>106.15667566666663</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27" ht="13.5">
+      <c r="AA259" s="6"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>286</v>
       </c>
@@ -23427,12 +22670,9 @@
       <c r="Z260" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA260" s="6">
-        <f t="shared" si="4"/>
-        <v>91.466089666666662</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27" ht="13.5">
+      <c r="AA260" s="6"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>287</v>
       </c>
@@ -23511,12 +22751,9 @@
       <c r="Z261" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA261" s="6">
-        <f t="shared" si="4"/>
-        <v>97.806048333333351</v>
-      </c>
-    </row>
-    <row r="262" spans="1:27" ht="13.5">
+      <c r="AA261" s="6"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>288</v>
       </c>
@@ -23595,12 +22832,9 @@
       <c r="Z262" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA262" s="6">
-        <f t="shared" si="4"/>
-        <v>93.373629333333341</v>
-      </c>
-    </row>
-    <row r="263" spans="1:27" ht="13.5">
+      <c r="AA262" s="6"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>289</v>
       </c>
@@ -23679,12 +22913,9 @@
       <c r="Z263" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA263" s="6">
-        <f t="shared" si="4"/>
-        <v>90.676044666666655</v>
-      </c>
-    </row>
-    <row r="264" spans="1:27" ht="13.5">
+      <c r="AA263" s="6"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>290</v>
       </c>
@@ -23763,12 +22994,9 @@
       <c r="Z264" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA264" s="6">
-        <f t="shared" si="4"/>
-        <v>86.944238333333331</v>
-      </c>
-    </row>
-    <row r="265" spans="1:27" ht="13.5">
+      <c r="AA264" s="6"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>291</v>
       </c>
@@ -23847,12 +23075,9 @@
       <c r="Z265" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA265" s="6">
-        <f t="shared" si="4"/>
-        <v>92.284265333333337</v>
-      </c>
-    </row>
-    <row r="266" spans="1:27" ht="13.5">
+      <c r="AA265" s="6"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>292</v>
       </c>
@@ -23931,12 +23156,9 @@
       <c r="Z266" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA266" s="6">
-        <f t="shared" si="4"/>
-        <v>99.396560666666673</v>
-      </c>
-    </row>
-    <row r="267" spans="1:27" ht="13.5">
+      <c r="AA266" s="6"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>293</v>
       </c>
@@ -24015,12 +23237,9 @@
       <c r="Z267" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA267" s="6">
-        <f t="shared" si="4"/>
-        <v>98.673019333333329</v>
-      </c>
-    </row>
-    <row r="268" spans="1:27" ht="13.5">
+      <c r="AA267" s="6"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>294</v>
       </c>
@@ -24099,12 +23318,9 @@
       <c r="Z268" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA268" s="6">
-        <f t="shared" si="4"/>
-        <v>94.636743666666689</v>
-      </c>
-    </row>
-    <row r="269" spans="1:27" ht="13.5">
+      <c r="AA268" s="6"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>295</v>
       </c>
@@ -24183,12 +23399,9 @@
       <c r="Z269" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA269" s="6">
-        <f t="shared" si="4"/>
-        <v>95.342241666666624</v>
-      </c>
-    </row>
-    <row r="270" spans="1:27" ht="13.5">
+      <c r="AA269" s="6"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>296</v>
       </c>
@@ -24267,12 +23480,9 @@
       <c r="Z270" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA270" s="6">
-        <f t="shared" si="4"/>
-        <v>95.152907000000013</v>
-      </c>
-    </row>
-    <row r="271" spans="1:27" ht="13.5">
+      <c r="AA270" s="6"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>297</v>
       </c>
@@ -24351,12 +23561,9 @@
       <c r="Z271" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA271" s="6">
-        <f t="shared" si="4"/>
-        <v>77.995857333333348</v>
-      </c>
-    </row>
-    <row r="272" spans="1:27" ht="13.5">
+      <c r="AA271" s="6"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>298</v>
       </c>
@@ -24435,12 +23642,9 @@
       <c r="Z272" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA272" s="6">
-        <f t="shared" si="4"/>
-        <v>92.868426333333332</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27" ht="13.5">
+      <c r="AA272" s="6"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>299</v>
       </c>
@@ -24519,12 +23723,9 @@
       <c r="Z273" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA273" s="6">
-        <f t="shared" si="4"/>
-        <v>82.00584299999997</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27" ht="13.5">
+      <c r="AA273" s="6"/>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>300</v>
       </c>
@@ -24603,12 +23804,9 @@
       <c r="Z274" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA274" s="6">
-        <f t="shared" si="4"/>
-        <v>82.049474000000046</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27" ht="13.5">
+      <c r="AA274" s="6"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>301</v>
       </c>
@@ -24687,12 +23885,9 @@
       <c r="Z275" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA275" s="6">
-        <f t="shared" si="4"/>
-        <v>82.021018333333316</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27" ht="13.5">
+      <c r="AA275" s="6"/>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>302</v>
       </c>
@@ -24771,12 +23966,9 @@
       <c r="Z276" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA276" s="6">
-        <f t="shared" si="4"/>
-        <v>68.952641666666679</v>
-      </c>
-    </row>
-    <row r="277" spans="1:27" ht="13.5">
+      <c r="AA276" s="6"/>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>303</v>
       </c>
@@ -24855,12 +24047,9 @@
       <c r="Z277" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA277" s="6">
-        <f t="shared" si="4"/>
-        <v>58.638156333333335</v>
-      </c>
-    </row>
-    <row r="278" spans="1:27" ht="13.5">
+      <c r="AA277" s="6"/>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>304</v>
       </c>
@@ -24939,12 +24128,9 @@
       <c r="Z278" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA278" s="6">
-        <f t="shared" si="4"/>
-        <v>56.48208433333334</v>
-      </c>
-    </row>
-    <row r="279" spans="1:27" ht="13.5">
+      <c r="AA278" s="6"/>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>305</v>
       </c>
@@ -25023,12 +24209,9 @@
       <c r="Z279" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA279" s="6">
-        <f t="shared" si="4"/>
-        <v>87.958658333333304</v>
-      </c>
-    </row>
-    <row r="280" spans="1:27" ht="13.5">
+      <c r="AA279" s="6"/>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>306</v>
       </c>
@@ -25107,12 +24290,9 @@
       <c r="Z280" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA280" s="6">
-        <f t="shared" si="4"/>
-        <v>92.6467526666667</v>
-      </c>
-    </row>
-    <row r="281" spans="1:27" ht="13.5">
+      <c r="AA280" s="6"/>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>307</v>
       </c>
@@ -25191,12 +24371,9 @@
       <c r="Z281" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA281" s="6">
-        <f t="shared" si="4"/>
-        <v>102.79844933333332</v>
-      </c>
-    </row>
-    <row r="282" spans="1:27" ht="13.5">
+      <c r="AA281" s="6"/>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>308</v>
       </c>
@@ -25275,12 +24452,9 @@
       <c r="Z282" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA282" s="6">
-        <f t="shared" si="4"/>
-        <v>116.86086866666669</v>
-      </c>
-    </row>
-    <row r="283" spans="1:27" ht="13.5">
+      <c r="AA282" s="6"/>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>309</v>
       </c>
@@ -25359,12 +24533,9 @@
       <c r="Z283" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA283" s="6">
-        <f t="shared" si="4"/>
-        <v>107.732597</v>
-      </c>
-    </row>
-    <row r="284" spans="1:27" ht="13.5">
+      <c r="AA283" s="6"/>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>310</v>
       </c>
@@ -25443,12 +24614,9 @@
       <c r="Z284" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA284" s="6">
-        <f t="shared" si="4"/>
-        <v>102.57783833333339</v>
-      </c>
-    </row>
-    <row r="285" spans="1:27" ht="13.5">
+      <c r="AA284" s="6"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>311</v>
       </c>
@@ -25527,12 +24695,9 @@
       <c r="Z285" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA285" s="6">
-        <f t="shared" si="4"/>
-        <v>76.492694666666637</v>
-      </c>
-    </row>
-    <row r="286" spans="1:27" ht="13.5">
+      <c r="AA285" s="6"/>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>312</v>
       </c>
@@ -25611,12 +24776,9 @@
       <c r="Z286" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA286" s="6">
-        <f t="shared" si="4"/>
-        <v>85.969177666666653</v>
-      </c>
-    </row>
-    <row r="287" spans="1:27" ht="13.5">
+      <c r="AA286" s="6"/>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>313</v>
       </c>
@@ -25695,12 +24857,9 @@
       <c r="Z287" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA287" s="6">
-        <f t="shared" si="4"/>
-        <v>107.83964500000002</v>
-      </c>
-    </row>
-    <row r="288" spans="1:27" ht="13.5">
+      <c r="AA287" s="6"/>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>314</v>
       </c>
@@ -25779,12 +24938,9 @@
       <c r="Z288" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA288" s="6">
-        <f t="shared" si="4"/>
-        <v>78.498655999999997</v>
-      </c>
-    </row>
-    <row r="289" spans="1:27" ht="13.5">
+      <c r="AA288" s="6"/>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>315</v>
       </c>
@@ -25863,12 +25019,9 @@
       <c r="Z289" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA289" s="6">
-        <f t="shared" si="4"/>
-        <v>69.487644666666668</v>
-      </c>
-    </row>
-    <row r="290" spans="1:27" ht="13.5">
+      <c r="AA289" s="6"/>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>316</v>
       </c>
@@ -25947,12 +25100,9 @@
       <c r="Z290" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA290" s="6">
-        <f t="shared" si="4"/>
-        <v>71.949815666666652</v>
-      </c>
-    </row>
-    <row r="291" spans="1:27" ht="13.5">
+      <c r="AA290" s="6"/>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>317</v>
       </c>
@@ -26031,12 +25181,9 @@
       <c r="Z291" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA291" s="6">
-        <f t="shared" si="4"/>
-        <v>62.581040000000009</v>
-      </c>
-    </row>
-    <row r="292" spans="1:27" ht="13.5">
+      <c r="AA291" s="6"/>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>318</v>
       </c>
@@ -26115,12 +25262,9 @@
       <c r="Z292" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA292" s="6">
-        <f t="shared" si="4"/>
-        <v>44.797393999999969</v>
-      </c>
-    </row>
-    <row r="293" spans="1:27" ht="13.5">
+      <c r="AA292" s="6"/>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>319</v>
       </c>
@@ -26199,12 +25343,9 @@
       <c r="Z293" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA293" s="6">
-        <f t="shared" si="4"/>
-        <v>52.541119000000002</v>
-      </c>
-    </row>
-    <row r="294" spans="1:27" ht="13.5">
+      <c r="AA293" s="6"/>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>320</v>
       </c>
@@ -26283,12 +25424,9 @@
       <c r="Z294" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA294" s="6">
-        <f t="shared" si="4"/>
-        <v>59.425672333333324</v>
-      </c>
-    </row>
-    <row r="295" spans="1:27" ht="13.5">
+      <c r="AA294" s="6"/>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>321</v>
       </c>
@@ -26367,12 +25505,9 @@
       <c r="Z295" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA295" s="6">
-        <f t="shared" si="4"/>
-        <v>55.389625333333328</v>
-      </c>
-    </row>
-    <row r="296" spans="1:27" ht="13.5">
+      <c r="AA295" s="6"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>322</v>
       </c>
@@ -26451,12 +25586,9 @@
       <c r="Z296" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA296" s="6">
-        <f t="shared" si="4"/>
-        <v>62.784843666666688</v>
-      </c>
-    </row>
-    <row r="297" spans="1:27" ht="13.5">
+      <c r="AA296" s="6"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>323</v>
       </c>
@@ -26535,12 +25667,9 @@
       <c r="Z297" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA297" s="6">
-        <f t="shared" si="4"/>
-        <v>61.252433666666697</v>
-      </c>
-    </row>
-    <row r="298" spans="1:27" ht="13.5">
+      <c r="AA297" s="6"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>324</v>
       </c>
@@ -26619,12 +25748,9 @@
       <c r="Z298" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA298" s="6">
-        <f t="shared" si="4"/>
-        <v>64.324591000000012</v>
-      </c>
-    </row>
-    <row r="299" spans="1:27" ht="13.5">
+      <c r="AA298" s="6"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>325</v>
       </c>
@@ -26703,12 +25829,9 @@
       <c r="Z299" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA299" s="6">
-        <f t="shared" si="4"/>
-        <v>54.099171999999989</v>
-      </c>
-    </row>
-    <row r="300" spans="1:27" ht="13.5">
+      <c r="AA299" s="6"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>326</v>
       </c>
@@ -26787,12 +25910,9 @@
       <c r="Z300" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA300" s="6">
-        <f t="shared" si="4"/>
-        <v>73.044268666666667</v>
-      </c>
-    </row>
-    <row r="301" spans="1:27" ht="13.5">
+      <c r="AA300" s="6"/>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>327</v>
       </c>
@@ -26871,12 +25991,9 @@
       <c r="Z301" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA301" s="6">
-        <f t="shared" si="4"/>
-        <v>82.787923333333339</v>
-      </c>
-    </row>
-    <row r="302" spans="1:27" ht="13.5">
+      <c r="AA301" s="6"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>328</v>
       </c>
@@ -26955,12 +26072,9 @@
       <c r="Z302" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA302" s="6">
-        <f t="shared" si="4"/>
-        <v>77.422482000000016</v>
-      </c>
-    </row>
-    <row r="303" spans="1:27" ht="13.5">
+      <c r="AA302" s="6"/>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>329</v>
       </c>
@@ -27039,12 +26153,9 @@
       <c r="Z303" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA303" s="6">
-        <f t="shared" si="4"/>
-        <v>82.338238333333337</v>
-      </c>
-    </row>
-    <row r="304" spans="1:27" ht="13.5">
+      <c r="AA303" s="6"/>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>330</v>
       </c>
@@ -27123,12 +26234,9 @@
       <c r="Z304" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA304" s="6">
-        <f t="shared" si="4"/>
-        <v>77.658778666666663</v>
-      </c>
-    </row>
-    <row r="305" spans="1:27" ht="13.5">
+      <c r="AA304" s="6"/>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>331</v>
       </c>
@@ -27207,12 +26315,9 @@
       <c r="Z305" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA305" s="6">
-        <f t="shared" si="4"/>
-        <v>55.360958333333315</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27" ht="13.5">
+      <c r="AA305" s="6"/>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>332</v>
       </c>
@@ -27291,12 +26396,9 @@
       <c r="Z306" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA306" s="6">
-        <f t="shared" si="4"/>
-        <v>37.796322000000011</v>
-      </c>
-    </row>
-    <row r="307" spans="1:27" ht="13.5">
+      <c r="AA306" s="6"/>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>333</v>
       </c>
@@ -27375,12 +26477,9 @@
       <c r="Z307" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA307" s="6">
-        <f t="shared" si="4"/>
-        <v>39.298161666666672</v>
-      </c>
-    </row>
-    <row r="308" spans="1:27" ht="13.5">
+      <c r="AA307" s="6"/>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>334</v>
       </c>
@@ -27459,12 +26558,9 @@
       <c r="Z308" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA308" s="6">
-        <f t="shared" si="4"/>
-        <v>63.32564366666665</v>
-      </c>
-    </row>
-    <row r="309" spans="1:27" ht="13.5">
+      <c r="AA308" s="6"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>336</v>
       </c>
@@ -27543,12 +26639,9 @@
       <c r="Z309" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA309" s="6">
-        <f t="shared" si="4"/>
-        <v>63.865640333333353</v>
-      </c>
-    </row>
-    <row r="310" spans="1:27" ht="13.5">
+      <c r="AA309" s="6"/>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>337</v>
       </c>
@@ -27627,12 +26720,9 @@
       <c r="Z310" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA310" s="6">
-        <f t="shared" si="4"/>
-        <v>79.086472666666694</v>
-      </c>
-    </row>
-    <row r="311" spans="1:27" ht="13.5">
+      <c r="AA310" s="6"/>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>338</v>
       </c>
@@ -27711,12 +26801,9 @@
       <c r="Z311" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA311" s="6">
-        <f t="shared" si="4"/>
-        <v>86.337513333333334</v>
-      </c>
-    </row>
-    <row r="312" spans="1:27" ht="13.5">
+      <c r="AA311" s="6"/>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>339</v>
       </c>
@@ -27795,12 +26882,9 @@
       <c r="Z312" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA312" s="6">
-        <f t="shared" si="4"/>
-        <v>66.368986666666672</v>
-      </c>
-    </row>
-    <row r="313" spans="1:27" ht="13.5">
+      <c r="AA312" s="6"/>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>340</v>
       </c>
@@ -27879,12 +26963,9 @@
       <c r="Z313" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA313" s="6">
-        <f t="shared" si="4"/>
-        <v>65.022561666666704</v>
-      </c>
-    </row>
-    <row r="314" spans="1:27" ht="13.5">
+      <c r="AA313" s="6"/>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>341</v>
       </c>
@@ -27963,12 +27044,9 @@
       <c r="Z314" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA314" s="6">
-        <f t="shared" si="4"/>
-        <v>62.753843333333357</v>
-      </c>
-    </row>
-    <row r="315" spans="1:27" ht="13.5">
+      <c r="AA314" s="6"/>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>342</v>
       </c>
@@ -28047,12 +27125,9 @@
       <c r="Z315" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA315" s="6">
-        <f t="shared" si="4"/>
-        <v>77.821862333333357</v>
-      </c>
-    </row>
-    <row r="316" spans="1:27" ht="13.5">
+      <c r="AA315" s="6"/>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>343</v>
       </c>
@@ -28131,12 +27206,9 @@
       <c r="Z316" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA316" s="6">
-        <f t="shared" si="4"/>
-        <v>74.02100466666667</v>
-      </c>
-    </row>
-    <row r="317" spans="1:27" ht="13.5">
+      <c r="AA316" s="6"/>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>344</v>
       </c>
@@ -28215,12 +27287,9 @@
       <c r="Z317" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA317" s="6">
-        <f t="shared" si="4"/>
-        <v>75.039863333333344</v>
-      </c>
-    </row>
-    <row r="318" spans="1:27" ht="13.5">
+      <c r="AA317" s="6"/>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>345</v>
       </c>
@@ -28299,12 +27368,9 @@
       <c r="Z318" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA318" s="6">
-        <f t="shared" si="4"/>
-        <v>86.949828333333315</v>
-      </c>
-    </row>
-    <row r="319" spans="1:27" ht="13.5">
+      <c r="AA318" s="6"/>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>346</v>
       </c>
@@ -28383,12 +27449,9 @@
       <c r="Z319" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA319" s="6">
-        <f t="shared" si="4"/>
-        <v>72.964463333333313</v>
-      </c>
-    </row>
-    <row r="320" spans="1:27" ht="13.5">
+      <c r="AA319" s="6"/>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>347</v>
       </c>
@@ -28467,12 +27530,9 @@
       <c r="Z320" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA320" s="6">
-        <f t="shared" si="4"/>
-        <v>59.368845000000015</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27" ht="13.5">
+      <c r="AA320" s="6"/>
+    </row>
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>348</v>
       </c>
@@ -28551,12 +27611,9 @@
       <c r="Z321" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA321" s="6">
-        <f t="shared" ref="AA321:AA367" si="5">AVERAGE(B321:Y321)</f>
-        <v>56.488051333333338</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27" ht="13.5">
+      <c r="AA321" s="6"/>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>349</v>
       </c>
@@ -28635,12 +27692,9 @@
       <c r="Z322" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA322" s="6">
-        <f t="shared" si="5"/>
-        <v>76.89851400000002</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27" ht="13.5">
+      <c r="AA322" s="6"/>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>350</v>
       </c>
@@ -28719,12 +27773,9 @@
       <c r="Z323" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA323" s="6">
-        <f t="shared" si="5"/>
-        <v>83.234806666666671</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27" ht="13.5">
+      <c r="AA323" s="6"/>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>351</v>
       </c>
@@ -28803,12 +27854,9 @@
       <c r="Z324" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA324" s="6">
-        <f t="shared" si="5"/>
-        <v>76.993471666666679</v>
-      </c>
-    </row>
-    <row r="325" spans="1:27" ht="13.5">
+      <c r="AA324" s="6"/>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>352</v>
       </c>
@@ -28887,12 +27935,9 @@
       <c r="Z325" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA325" s="6">
-        <f t="shared" si="5"/>
-        <v>79.568992666666645</v>
-      </c>
-    </row>
-    <row r="326" spans="1:27" ht="13.5">
+      <c r="AA325" s="6"/>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>353</v>
       </c>
@@ -28971,12 +28016,9 @@
       <c r="Z326" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA326" s="6">
-        <f t="shared" si="5"/>
-        <v>65.712096000000003</v>
-      </c>
-    </row>
-    <row r="327" spans="1:27" ht="13.5">
+      <c r="AA326" s="6"/>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>354</v>
       </c>
@@ -29055,12 +28097,9 @@
       <c r="Z327" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA327" s="6">
-        <f t="shared" si="5"/>
-        <v>51.728205000000003</v>
-      </c>
-    </row>
-    <row r="328" spans="1:27" ht="13.5">
+      <c r="AA327" s="6"/>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>355</v>
       </c>
@@ -29139,12 +28178,9 @@
       <c r="Z328" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA328" s="6">
-        <f t="shared" si="5"/>
-        <v>79.445424999999986</v>
-      </c>
-    </row>
-    <row r="329" spans="1:27" ht="13.5">
+      <c r="AA328" s="6"/>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>356</v>
       </c>
@@ -29223,12 +28259,9 @@
       <c r="Z329" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA329" s="6">
-        <f t="shared" si="5"/>
-        <v>68.984669666666647</v>
-      </c>
-    </row>
-    <row r="330" spans="1:27" ht="13.5">
+      <c r="AA329" s="6"/>
+    </row>
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>357</v>
       </c>
@@ -29307,12 +28340,9 @@
       <c r="Z330" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA330" s="6">
-        <f t="shared" si="5"/>
-        <v>69.626029333333335</v>
-      </c>
-    </row>
-    <row r="331" spans="1:27" ht="13.5">
+      <c r="AA330" s="6"/>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>358</v>
       </c>
@@ -29391,12 +28421,9 @@
       <c r="Z331" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA331" s="6">
-        <f t="shared" si="5"/>
-        <v>76.206717999999995</v>
-      </c>
-    </row>
-    <row r="332" spans="1:27" ht="13.5">
+      <c r="AA331" s="6"/>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>359</v>
       </c>
@@ -29475,12 +28502,9 @@
       <c r="Z332" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA332" s="6">
-        <f t="shared" si="5"/>
-        <v>54.093635000000013</v>
-      </c>
-    </row>
-    <row r="333" spans="1:27" ht="13.5">
+      <c r="AA332" s="6"/>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>360</v>
       </c>
@@ -29559,12 +28583,9 @@
       <c r="Z333" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA333" s="6">
-        <f t="shared" si="5"/>
-        <v>66.670127666666673</v>
-      </c>
-    </row>
-    <row r="334" spans="1:27" ht="13.5">
+      <c r="AA333" s="6"/>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>361</v>
       </c>
@@ -29643,12 +28664,9 @@
       <c r="Z334" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA334" s="6">
-        <f t="shared" si="5"/>
-        <v>50.043059333333332</v>
-      </c>
-    </row>
-    <row r="335" spans="1:27" ht="13.5">
+      <c r="AA334" s="6"/>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>362</v>
       </c>
@@ -29727,12 +28745,9 @@
       <c r="Z335" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA335" s="6">
-        <f t="shared" si="5"/>
-        <v>74.337840999999983</v>
-      </c>
-    </row>
-    <row r="336" spans="1:27" ht="13.5">
+      <c r="AA335" s="6"/>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>363</v>
       </c>
@@ -29811,12 +28826,9 @@
       <c r="Z336" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA336" s="6">
-        <f t="shared" si="5"/>
-        <v>78.463933666666648</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27" ht="13.5">
+      <c r="AA336" s="6"/>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>364</v>
       </c>
@@ -29895,12 +28907,9 @@
       <c r="Z337" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA337" s="6">
-        <f t="shared" si="5"/>
-        <v>74.735377999999983</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27" ht="13.5">
+      <c r="AA337" s="6"/>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>365</v>
       </c>
@@ -29979,12 +28988,9 @@
       <c r="Z338" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA338" s="6">
-        <f t="shared" si="5"/>
-        <v>67.260466666666687</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27" ht="13.5">
+      <c r="AA338" s="6"/>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>366</v>
       </c>
@@ -30063,12 +29069,9 @@
       <c r="Z339" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA339" s="6">
-        <f t="shared" si="5"/>
-        <v>72.727430333333345</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27" ht="13.5">
+      <c r="AA339" s="6"/>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>367</v>
       </c>
@@ -30147,12 +29150,9 @@
       <c r="Z340" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA340" s="6">
-        <f t="shared" si="5"/>
-        <v>50.588750333333316</v>
-      </c>
-    </row>
-    <row r="341" spans="1:27" ht="13.5">
+      <c r="AA340" s="6"/>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>368</v>
       </c>
@@ -30231,12 +29231,9 @@
       <c r="Z341" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA341" s="6">
-        <f t="shared" si="5"/>
-        <v>45.622515999999997</v>
-      </c>
-    </row>
-    <row r="342" spans="1:27" ht="13.5">
+      <c r="AA341" s="6"/>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>369</v>
       </c>
@@ -30315,12 +29312,9 @@
       <c r="Z342" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA342" s="6">
-        <f t="shared" si="5"/>
-        <v>57.290299666666648</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27" ht="13.5">
+      <c r="AA342" s="6"/>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>370</v>
       </c>
@@ -30399,12 +29393,9 @@
       <c r="Z343" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA343" s="6">
-        <f t="shared" si="5"/>
-        <v>56.306693333333335</v>
-      </c>
-    </row>
-    <row r="344" spans="1:27" ht="13.5">
+      <c r="AA343" s="6"/>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>371</v>
       </c>
@@ -30483,12 +29474,9 @@
       <c r="Z344" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA344" s="6">
-        <f t="shared" si="5"/>
-        <v>57.110246999999994</v>
-      </c>
-    </row>
-    <row r="345" spans="1:27" ht="13.5">
+      <c r="AA344" s="6"/>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>372</v>
       </c>
@@ -30567,12 +29555,9 @@
       <c r="Z345" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA345" s="6">
-        <f t="shared" si="5"/>
-        <v>44.796045999999997</v>
-      </c>
-    </row>
-    <row r="346" spans="1:27" ht="13.5">
+      <c r="AA345" s="6"/>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>373</v>
       </c>
@@ -30651,12 +29636,9 @@
       <c r="Z346" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA346" s="6">
-        <f t="shared" si="5"/>
-        <v>47.020715666666668</v>
-      </c>
-    </row>
-    <row r="347" spans="1:27" ht="13.5">
+      <c r="AA346" s="6"/>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>374</v>
       </c>
@@ -30735,12 +29717,9 @@
       <c r="Z347" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA347" s="6">
-        <f t="shared" si="5"/>
-        <v>45.315118333333324</v>
-      </c>
-    </row>
-    <row r="348" spans="1:27" ht="13.5">
+      <c r="AA347" s="6"/>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>375</v>
       </c>
@@ -30819,12 +29798,9 @@
       <c r="Z348" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA348" s="6">
-        <f t="shared" si="5"/>
-        <v>43.421927333333336</v>
-      </c>
-    </row>
-    <row r="349" spans="1:27" ht="13.5">
+      <c r="AA348" s="6"/>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>376</v>
       </c>
@@ -30903,12 +29879,9 @@
       <c r="Z349" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA349" s="6">
-        <f t="shared" si="5"/>
-        <v>51.155043999999982</v>
-      </c>
-    </row>
-    <row r="350" spans="1:27" ht="13.5">
+      <c r="AA349" s="6"/>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>377</v>
       </c>
@@ -30987,12 +29960,9 @@
       <c r="Z350" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA350" s="6">
-        <f t="shared" si="5"/>
-        <v>63.635032333333349</v>
-      </c>
-    </row>
-    <row r="351" spans="1:27" ht="13.5">
+      <c r="AA350" s="6"/>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>378</v>
       </c>
@@ -31071,12 +30041,9 @@
       <c r="Z351" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA351" s="6">
-        <f t="shared" si="5"/>
-        <v>63.129540999999989</v>
-      </c>
-    </row>
-    <row r="352" spans="1:27" ht="13.5">
+      <c r="AA351" s="6"/>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>379</v>
       </c>
@@ -31155,12 +30122,9 @@
       <c r="Z352" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA352" s="6">
-        <f t="shared" si="5"/>
-        <v>64.189244666666696</v>
-      </c>
-    </row>
-    <row r="353" spans="1:27" ht="13.5">
+      <c r="AA352" s="6"/>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>380</v>
       </c>
@@ -31239,12 +30203,9 @@
       <c r="Z353" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA353" s="6">
-        <f t="shared" si="5"/>
-        <v>67.21845633333335</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27" ht="13.5">
+      <c r="AA353" s="6"/>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>381</v>
       </c>
@@ -31323,12 +30284,9 @@
       <c r="Z354" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA354" s="6">
-        <f t="shared" si="5"/>
-        <v>50.008442000000024</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27" ht="13.5">
+      <c r="AA354" s="6"/>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>382</v>
       </c>
@@ -31407,12 +30365,9 @@
       <c r="Z355" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA355" s="6">
-        <f t="shared" si="5"/>
-        <v>45.845794333333316</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27" ht="13.5">
+      <c r="AA355" s="6"/>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>383</v>
       </c>
@@ -31491,12 +30446,9 @@
       <c r="Z356" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA356" s="6">
-        <f t="shared" si="5"/>
-        <v>47.904251333333342</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27" ht="13.5">
+      <c r="AA356" s="6"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>384</v>
       </c>
@@ -31575,12 +30527,9 @@
       <c r="Z357" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA357" s="6">
-        <f t="shared" si="5"/>
-        <v>53.663769666666646</v>
-      </c>
-    </row>
-    <row r="358" spans="1:27" ht="13.5">
+      <c r="AA357" s="6"/>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>385</v>
       </c>
@@ -31659,12 +30608,9 @@
       <c r="Z358" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA358" s="6">
-        <f t="shared" si="5"/>
-        <v>50.561404666666668</v>
-      </c>
-    </row>
-    <row r="359" spans="1:27" ht="13.5">
+      <c r="AA358" s="6"/>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>386</v>
       </c>
@@ -31743,12 +30689,9 @@
       <c r="Z359" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA359" s="6">
-        <f t="shared" si="5"/>
-        <v>60.868116000000022</v>
-      </c>
-    </row>
-    <row r="360" spans="1:27" ht="13.5">
+      <c r="AA359" s="6"/>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>387</v>
       </c>
@@ -31827,12 +30770,9 @@
       <c r="Z360" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA360" s="6">
-        <f t="shared" si="5"/>
-        <v>57.204237333333339</v>
-      </c>
-    </row>
-    <row r="361" spans="1:27" ht="13.5">
+      <c r="AA360" s="6"/>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>388</v>
       </c>
@@ -31911,12 +30851,9 @@
       <c r="Z361" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA361" s="6">
-        <f t="shared" si="5"/>
-        <v>45.883158333333334</v>
-      </c>
-    </row>
-    <row r="362" spans="1:27" ht="13.5">
+      <c r="AA361" s="6"/>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>389</v>
       </c>
@@ -31995,12 +30932,9 @@
       <c r="Z362" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA362" s="6">
-        <f t="shared" si="5"/>
-        <v>41.181629000000015</v>
-      </c>
-    </row>
-    <row r="363" spans="1:27" ht="13.5">
+      <c r="AA362" s="6"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>390</v>
       </c>
@@ -32079,12 +31013,9 @@
       <c r="Z363" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA363" s="6">
-        <f t="shared" si="5"/>
-        <v>58.364668666666638</v>
-      </c>
-    </row>
-    <row r="364" spans="1:27" ht="13.5">
+      <c r="AA363" s="6"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>391</v>
       </c>
@@ -32163,12 +31094,9 @@
       <c r="Z364" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA364" s="6">
-        <f t="shared" si="5"/>
-        <v>69.024668666666685</v>
-      </c>
-    </row>
-    <row r="365" spans="1:27" ht="13.5">
+      <c r="AA364" s="6"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>392</v>
       </c>
@@ -32247,12 +31175,9 @@
       <c r="Z365" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA365" s="6">
-        <f t="shared" si="5"/>
-        <v>67.140951333333334</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" ht="13.5">
+      <c r="AA365" s="6"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>393</v>
       </c>
@@ -32331,12 +31256,9 @@
       <c r="Z366" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA366" s="6">
-        <f t="shared" si="5"/>
-        <v>68.983172999999979</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" ht="13.5">
+      <c r="AA366" s="6"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>394</v>
       </c>
@@ -32415,12 +31337,9 @@
       <c r="Z367" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA367" s="6">
-        <f t="shared" si="5"/>
-        <v>61.575258999999996</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" ht="13.5">
+      <c r="AA367" s="6"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>395</v>
       </c>
@@ -32499,34 +31418,19 @@
       <c r="Z368" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AA368" s="6">
-        <f>AVERAGE(B368:Y368)</f>
-        <v>53.44069866666667</v>
-      </c>
-    </row>
-    <row r="369" spans="27:27" ht="409.6" hidden="1" customHeight="1">
-      <c r="AA369" s="6" t="e">
-        <f t="shared" ref="AA369:AA372" si="6">AVERAGE(B369:Y369)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="370" spans="27:27" ht="12.95" customHeight="1">
-      <c r="AA370" s="6">
-        <f>AVERAGE(AA4:AA368)</f>
-        <v>75.013184491324225</v>
-      </c>
-    </row>
-    <row r="371" spans="27:27">
-      <c r="AA371" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="372" spans="27:27">
-      <c r="AA372" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AA368" s="6"/>
+    </row>
+    <row r="369" spans="27:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA369" s="10"/>
+    </row>
+    <row r="370" spans="27:27" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA370" s="6"/>
+    </row>
+    <row r="371" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA371" s="6"/>
+    </row>
+    <row r="372" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA372" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -32542,6 +31446,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002BA42287BCA96E4CBE0B0D4D30D58F77" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="430dbe27c8d3fdb5344da83a654157b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e48ec5c2-614c-49e6-a81a-ca54d4b077b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="acf7ea99d1f8bcbadb4a28bdb40ccc60" ns2:_="">
     <xsd:import namespace="e48ec5c2-614c-49e6-a81a-ca54d4b077b0"/>
@@ -32681,29 +31600,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0D36D41-D9C6-44B6-BF84-0702C75C0A4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC47B74-B257-49E3-9FBF-C359FF6A1508}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D53B27C-1300-462E-98E0-3E43299A58D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D53B27C-1300-462E-98E0-3E43299A58D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC47B74-B257-49E3-9FBF-C359FF6A1508}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0D36D41-D9C6-44B6-BF84-0702C75C0A4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e48ec5c2-614c-49e6-a81a-ca54d4b077b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>